--- a/v3/example/ExampleData.xlsx
+++ b/v3/example/ExampleData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000"/>
+    <workbookView windowWidth="28695" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>ID</t>
   </si>
@@ -28,16 +28,25 @@
     <t>类型</t>
   </si>
   <si>
+    <t>技能列表</t>
+  </si>
+  <si>
     <t>扎克镇</t>
   </si>
   <si>
     <t>狂鼠</t>
   </si>
   <si>
+    <t>1|2|</t>
+  </si>
+  <si>
     <t>阿努比斯神庙</t>
   </si>
   <si>
     <t>法鸡</t>
+  </si>
+  <si>
+    <t>1;2;</t>
   </si>
   <si>
     <t>花村</t>
@@ -57,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -83,10 +92,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,8 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,67 +148,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +193,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,6 +204,35 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,7 +251,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,19 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,43 +371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,55 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,37 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,32 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,37 +487,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +537,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,7 +1042,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1054,7 +1063,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -17435,32 +17446,38 @@
       <c r="XFC1" s="3"/>
       <c r="XFD1" s="3"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:4">
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:5">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>3.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:4">
+    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:5">
       <c r="A3" s="2">
         <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>1.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="16.5" spans="1:4">
@@ -17468,13 +17485,13 @@
         <v>300</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>79.4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="16.5" spans="1:4">
@@ -17482,13 +17499,13 @@
         <v>400</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>0.63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="16.5"/>

--- a/v3/example/ExampleData.xlsx
+++ b/v3/example/ExampleData.xlsx
@@ -46,7 +46,7 @@
     <t>法鸡</t>
   </si>
   <si>
-    <t>1;2;</t>
+    <t>100|9|86</t>
   </si>
   <si>
     <t>花村</t>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,82 +101,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -193,14 +126,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -208,7 +133,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,8 +175,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +217,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +251,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +317,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,151 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +470,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -493,36 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -538,11 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/v3/example/ExampleData.xlsx
+++ b/v3/example/ExampleData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>ID</t>
   </si>
@@ -48,27 +48,15 @@
   <si>
     <t>100|9|86</t>
   </si>
-  <si>
-    <t>花村</t>
-  </si>
-  <si>
-    <t>源氏</t>
-  </si>
-  <si>
-    <t>艾兴瓦尔德</t>
-  </si>
-  <si>
-    <t>天使</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -92,11 +80,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,17 +95,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,21 +135,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,35 +171,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,7 +239,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +299,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,25 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,49 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +478,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -493,26 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +526,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,34 +565,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,97 +601,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD27"/>
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17480,34 +17468,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A4" s="2">
-        <v>300</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>79.4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="16.5" spans="1:4">
-      <c r="A5" s="2">
-        <v>400</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="4" s="2" customFormat="1" ht="16.5"/>
+    <row r="5" s="2" customFormat="1" ht="16.5"/>
     <row r="6" s="2" customFormat="1" ht="16.5"/>
     <row r="7" s="2" customFormat="1" ht="16.5"/>
     <row r="8" s="2" customFormat="1" ht="16.5"/>
@@ -17528,8 +17490,6 @@
     <row r="23" s="2" customFormat="1" ht="16.5"/>
     <row r="24" s="2" customFormat="1" ht="16.5"/>
     <row r="25" s="2" customFormat="1" ht="16.5"/>
-    <row r="26" s="2" customFormat="1" ht="16.5"/>
-    <row r="27" s="2" customFormat="1" ht="16.5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
